--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t>09/01/182018</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>08:56</t>
+  </si>
+  <si>
+    <t>26-01-2018</t>
+  </si>
+  <si>
+    <t>09:32</t>
+  </si>
+  <si>
+    <t>09:33</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -560,6 +569,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>20.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
